--- a/data/referee-performance-baboon.xlsx
+++ b/data/referee-performance-baboon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="465" windowWidth="35655" windowHeight="16320" activeTab="1"/>
+    <workbookView xWindow="645" yWindow="465" windowWidth="35655" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="baboon-info" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Num procs</t>
   </si>
@@ -113,19 +113,7 @@
     <t>Size of ref genome file</t>
   </si>
   <si>
-    <t>54 minutes 23 seconds</t>
-  </si>
-  <si>
-    <t>69 GB</t>
-  </si>
-  <si>
-    <t>split by scaffold</t>
-  </si>
-  <si>
     <t>Size of Referee output</t>
-  </si>
-  <si>
-    <t>75.09 GB</t>
   </si>
   <si>
     <t>Sites with no reads mapped</t>
@@ -509,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,189 +510,165 @@
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>63234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>28921</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2861668348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2664619299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <v>197049049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
-        <v>2385521027</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
@@ -717,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -733,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -780,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -812,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -844,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -876,7 +840,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/referee-performance-baboon.xlsx
+++ b/data/referee-performance-baboon.xlsx
@@ -89,9 +89,6 @@
     <t>ANGSD command</t>
   </si>
   <si>
-    <t>angsd -GL 2 -i mapped-reads/n2_5x_100_180_sorted.bam -ref assembly/rpgc_assembly.fasta -minQ 0 -doGlf 4</t>
-  </si>
-  <si>
     <t>Size of reads file</t>
   </si>
   <si>
@@ -143,19 +140,22 @@
     <t>Size of pileup file</t>
   </si>
   <si>
-    <t>245.63 GB</t>
-  </si>
-  <si>
     <t>Time to run mpileup</t>
   </si>
   <si>
-    <t>86.55 minutes</t>
-  </si>
-  <si>
     <t>Pileup</t>
   </si>
   <si>
     <t>ANGSD</t>
+  </si>
+  <si>
+    <t>angsd -P 24 -GL 2 -i $babdir/mapped/baboon-reads-sorted.bam -ref $babdir/assembly/GCA_000264685.2_Panu_3.0_genomic.fna -minQ 0 -doGlf 4 -remove_bads 0 -out bab-angsd</t>
+  </si>
+  <si>
+    <t>34.12 hours</t>
+  </si>
+  <si>
+    <t>68.07 GB</t>
   </si>
 </sst>
 </file>
@@ -191,8 +191,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +501,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,18 +513,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -544,57 +545,57 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -604,7 +605,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -614,7 +615,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -644,7 +645,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -659,7 +660,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
@@ -674,6 +675,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -697,10 +699,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -744,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -776,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -808,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -840,7 +842,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/referee-performance-baboon.xlsx
+++ b/data/referee-performance-baboon.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="645" yWindow="465" windowWidth="35655" windowHeight="16320"/>
+    <workbookView xWindow="648" yWindow="468" windowWidth="35652" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="baboon-info" sheetId="4" r:id="rId1"/>
@@ -149,13 +154,13 @@
     <t>ANGSD</t>
   </si>
   <si>
-    <t>angsd -P 24 -GL 2 -i $babdir/mapped/baboon-reads-sorted.bam -ref $babdir/assembly/GCA_000264685.2_Panu_3.0_genomic.fna -minQ 0 -doGlf 4 -remove_bads 0 -out bab-angsd</t>
-  </si>
-  <si>
-    <t>34.12 hours</t>
-  </si>
-  <si>
-    <t>68.07 GB</t>
+    <t>angsd -P 24 -GL 2 -i $babdir/mapped/baboon-reads-sorted.bam -ref $babdir/assembly/GCA_000264685.2_Panu_3.0_genomic.fna -minQ 0 -doGlf 4 -out bab-angsd</t>
+  </si>
+  <si>
+    <t>33.73 hours</t>
+  </si>
+  <si>
+    <t>67.48 GB</t>
   </si>
 </sst>
 </file>
@@ -254,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,7 +294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,17 +506,17 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -519,7 +524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -527,7 +532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -535,12 +540,12 @@
         <v>63234</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -548,7 +553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -556,7 +561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -564,17 +569,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -582,15 +587,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -598,77 +603,77 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -687,17 +692,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -705,7 +710,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -725,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -733,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -741,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -749,7 +754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -757,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -765,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -773,7 +778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -781,7 +786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -789,7 +794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -797,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -805,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -813,7 +818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -821,7 +826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -829,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>24</v>
       </c>
@@ -837,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>24</v>
       </c>
@@ -845,7 +850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24</v>
       </c>

--- a/data/referee-performance-baboon.xlsx
+++ b/data/referee-performance-baboon.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D734B6-9EBC-E44C-8A34-DF73741B2C70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="648" yWindow="468" windowWidth="35652" windowHeight="16320"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="35660" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baboon-info" sheetId="4" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Num procs</t>
   </si>
@@ -127,21 +128,12 @@
     <t>/N/dc2/scratch/grthomas/qtip/baboon/assembly/GCA_000264685.2_Panu_3.0_genomic.fna</t>
   </si>
   <si>
-    <t>3.00 GB</t>
-  </si>
-  <si>
     <t>/N/dc2/scratch/grthomas/qtip/baboon/mapped/baboon-reads-sorted.bam</t>
   </si>
   <si>
-    <t>67.66 GB</t>
-  </si>
-  <si>
     <t>Pileup command</t>
   </si>
   <si>
-    <t>samtools mpileup -d 999999999 -f $reffile -Q 0 -s -B -o baboon.pileup $bamfile</t>
-  </si>
-  <si>
     <t>Size of pileup file</t>
   </si>
   <si>
@@ -154,19 +146,34 @@
     <t>ANGSD</t>
   </si>
   <si>
-    <t>angsd -P 24 -GL 2 -i $babdir/mapped/baboon-reads-sorted.bam -ref $babdir/assembly/GCA_000264685.2_Panu_3.0_genomic.fna -minQ 0 -doGlf 4 -out bab-angsd</t>
-  </si>
-  <si>
-    <t>33.73 hours</t>
-  </si>
-  <si>
-    <t>67.48 GB</t>
+    <t>62.00 GB</t>
+  </si>
+  <si>
+    <t>15.65 hours</t>
+  </si>
+  <si>
+    <t>/N/dc2/scratch/grthomas/qtip/baboon/assembly/baboon-chromes.fa</t>
+  </si>
+  <si>
+    <t>2.72 GB</t>
+  </si>
+  <si>
+    <t>/N/dc2/scratch/grthomas/qtip/baboon/mapped/baboon-chromes-sorted.bam</t>
+  </si>
+  <si>
+    <t>60.13 GB</t>
+  </si>
+  <si>
+    <t>angsd -P 24 -GL 2 -i $bamfile -ref $reffile -minQ 0 -doGlf 4 -out bab-angsd</t>
+  </si>
+  <si>
+    <t>samtools mpileup -d 999999999 -f $reffile -Q 0 -s -B -o bab.pileup $bamfile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,6 +299,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -327,6 +351,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,178 +543,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>63234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2724327674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -685,32 +735,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -730,7 +780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -738,7 +788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -746,7 +796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -754,7 +804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -762,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -770,7 +820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -778,7 +828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -786,7 +836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -794,7 +844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -802,7 +852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -810,7 +860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -818,7 +868,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -826,7 +876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>24</v>
       </c>
@@ -834,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>24</v>
       </c>
@@ -842,7 +892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>24</v>
       </c>
@@ -850,7 +900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>24</v>
       </c>

--- a/data/referee-performance-baboon.xlsx
+++ b/data/referee-performance-baboon.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D734B6-9EBC-E44C-8A34-DF73741B2C70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="35660" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="465" windowWidth="35655" windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="baboon-info" sheetId="4" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>Num procs</t>
   </si>
@@ -56,9 +50,6 @@
     <t>Bases</t>
   </si>
   <si>
-    <t>Mapped sites with ANGSD calcs</t>
-  </si>
-  <si>
     <t>Sites with ref base N</t>
   </si>
   <si>
@@ -168,12 +159,27 @@
   </si>
   <si>
     <t>samtools mpileup -d 999999999 -f $reffile -Q 0 -s -B -o bab.pileup $bamfile</t>
+  </si>
+  <si>
+    <t>1.45 hours</t>
+  </si>
+  <si>
+    <t>223.19 GB</t>
+  </si>
+  <si>
+    <t>Sites with ANGSD calcs</t>
+  </si>
+  <si>
+    <t>Sites with pileup</t>
+  </si>
+  <si>
+    <t>Pileup no mq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,26 +305,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,23 +340,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,37 +515,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -594,138 +566,149 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -735,32 +718,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -779,8 +773,32 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -788,7 +806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -796,15 +814,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -812,65 +830,65 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -897,7 +915,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/referee-performance-baboon.xlsx
+++ b/data/referee-performance-baboon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="465" windowWidth="35655" windowHeight="16320" activeTab="1"/>
+    <workbookView xWindow="645" yWindow="465" windowWidth="35655" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="baboon-info" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Num procs</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Size of ref genome file</t>
   </si>
   <si>
-    <t>Size of Referee output</t>
-  </si>
-  <si>
     <t>Sites with no reads mapped</t>
   </si>
   <si>
@@ -174,6 +171,15 @@
   </si>
   <si>
     <t>Pileup no mq</t>
+  </si>
+  <si>
+    <t>Size of Referee tab output</t>
+  </si>
+  <si>
+    <t>Size of Referee fastq output</t>
+  </si>
+  <si>
+    <t>Size of Referee bed output</t>
   </si>
 </sst>
 </file>
@@ -516,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,10 +540,10 @@
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -545,7 +551,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -569,10 +575,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -580,134 +586,150 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>2679799971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>2679051071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -721,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -745,13 +767,13 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
         <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -819,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -838,7 +860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -846,15 +868,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -862,7 +884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -870,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -878,15 +900,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -894,7 +916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -902,7 +924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
@@ -910,15 +932,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24</v>
       </c>
